--- a/biology/Médecine/Vladimir_Hachinski/Vladimir_Hachinski.xlsx
+++ b/biology/Médecine/Vladimir_Hachinski/Vladimir_Hachinski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Hachinski (né en 1941 à Jytomyr) est un neurologue canadien, chercheur et enseignant à l'Université de Western Ontario (Canada).
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en Ukraine, il suit sa famille qui quitte le pays natal, en 1954,  pour émigrer au Venezuela, où il reste peu de temps. Ensuite il gagne le Canada. Vladimir a alors 17 ans, il ne connaissait, à cette époque, que 727 mots d'anglais, a-t-il déclaré[1]. Il fait ses études médicales à Toronto et ses premières publications sur les troubles cognitifs, consécutifs à des accidents vasculaires cérébraux, font, de lui, un des plus éminents neurologues[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en Ukraine, il suit sa famille qui quitte le pays natal, en 1954,  pour émigrer au Venezuela, où il reste peu de temps. Ensuite il gagne le Canada. Vladimir a alors 17 ans, il ne connaissait, à cette époque, que 727 mots d'anglais, a-t-il déclaré. Il fait ses études médicales à Toronto et ses premières publications sur les troubles cognitifs, consécutifs à des accidents vasculaires cérébraux, font, de lui, un des plus éminents neurologues.
 Hachinski, diplômé de l'Université de Toronto en 1966, consacre ses travaux sur les troubles du comportement et les troubles cognitifs.
-C'est un expert international sur la prévention des accidents vasculaires cérébraux, il présente les concepts et les conditions d'apparition de la leucoaraiose. Il a présenté de nombreuses publications pour Annals of Neurology, The Lancet, Brain Research, Canadian Medical Association Journal, Journal of the American Medical Association (JAMA) et a contribué à plus de 500 chapitres de livres, articles scientifiques, éditoriaux[3].
-Il crée le terme « attaque cérébrale » (stroke, en anglais), pour sensibiliser davantage, le corps médical et le public, à l'urgence de prise en charge thérapeutique des accidents vasculaires cérébraux[4]. 
-En 2008, il est honoré, par le Canada, avec une nomination à titre de membre de l'Ordre du Canada[5], plus haute distinction du pays : « Pour sa contribution au domaine de la neurologie, notamment à titre de spécialiste et de chercheur dans le domaine des accidents cérébro-vasculaires et de la démence. » Il a reçu en 2020 le Prix F.N.G.-Starr de l'Association médicale canadienne[6].
+C'est un expert international sur la prévention des accidents vasculaires cérébraux, il présente les concepts et les conditions d'apparition de la leucoaraiose. Il a présenté de nombreuses publications pour Annals of Neurology, The Lancet, Brain Research, Canadian Medical Association Journal, Journal of the American Medical Association (JAMA) et a contribué à plus de 500 chapitres de livres, articles scientifiques, éditoriaux.
+Il crée le terme « attaque cérébrale » (stroke, en anglais), pour sensibiliser davantage, le corps médical et le public, à l'urgence de prise en charge thérapeutique des accidents vasculaires cérébraux. 
+En 2008, il est honoré, par le Canada, avec une nomination à titre de membre de l'Ordre du Canada, plus haute distinction du pays : « Pour sa contribution au domaine de la neurologie, notamment à titre de spécialiste et de chercheur dans le domaine des accidents cérébro-vasculaires et de la démence. » Il a reçu en 2020 le Prix F.N.G.-Starr de l'Association médicale canadienne.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hachinski VC, Lassen NA, Marshall J: Multi-infarct dementia: a cause of mental deterioration in the elderly. Lancet 2: 207-209, 1974
 Di Legge S, Beletsky V, Jain V, Hachinski V. CT assessment of conjugate eye deviation in acute stroke. Neurology. 2004 Feb 10;62(3):523.
